--- a/biology/Botanique/Square_Alexandre-Luquet/Square_Alexandre-Luquet.xlsx
+++ b/biology/Botanique/Square_Alexandre-Luquet/Square_Alexandre-Luquet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Alexandre-Luquet est un square du 20e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site est accessible par le 4, rue du Transvaal.
 Il est accessible par la ligne 11 à la station de métro Pyrénées.
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il porte le nom du syndicaliste et homme politique français Alexandre Luquet (1874-1930).
 </t>
@@ -575,7 +591,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet espace vert a été créé sous son nom actuel en 1978. Il a une superficie de 2 740 m2.
 </t>
